--- a/data/BOC/APEP/POPT/Civilian Population.xlsx
+++ b/data/BOC/APEP/POPT/Civilian Population.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\US\data\BOC\APEP\POPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\BOC\APEP\POPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF98DF-337E-42B4-AB9A-3AEFFB075730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="6660" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Male" sheetId="2" r:id="rId2"/>
     <sheet name="Female" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -457,7 +466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -758,8 +767,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
@@ -20229,7 +20238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" workbookViewId="0">
@@ -39421,7 +39430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ140"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">

--- a/data/BOC/APEP/POPT/Civilian Population.xlsx
+++ b/data/BOC/APEP/POPT/Civilian Population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\BOC\APEP\POPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF98DF-337E-42B4-AB9A-3AEFFB075730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27AEF3-584A-40AF-A4D6-43F17C8D7D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
